--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="D2" t="n">
-        <v>2009879</v>
+        <v>2012502</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6176</v>
+        <v>6182</v>
       </c>
       <c r="D3" t="n">
-        <v>9063505</v>
+        <v>9071105</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="D4" t="n">
-        <v>3259132</v>
+        <v>3260632</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D5" t="n">
-        <v>812071</v>
+        <v>813571</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="D15" t="n">
-        <v>2717215</v>
+        <v>2717426</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="D16" t="n">
-        <v>4008442</v>
+        <v>4009942</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4543</v>
+        <v>4545</v>
       </c>
       <c r="D17" t="n">
-        <v>6616536</v>
+        <v>6619536</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="D22" t="n">
-        <v>2500424</v>
+        <v>2501924</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="D29" t="n">
-        <v>3165951</v>
+        <v>3167252</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="D30" t="n">
-        <v>5020385</v>
+        <v>5024885</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6881</v>
+        <v>6889</v>
       </c>
       <c r="D31" t="n">
-        <v>10059012</v>
+        <v>10071012</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="D32" t="n">
-        <v>3116922</v>
+        <v>3119922</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" t="n">
-        <v>181549</v>
+        <v>183049</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="D36" t="n">
-        <v>3459984</v>
+        <v>3463794</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D37" t="n">
-        <v>1929516</v>
+        <v>1932516</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="D38" t="n">
-        <v>4262954</v>
+        <v>4265954</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D39" t="n">
-        <v>1231243</v>
+        <v>1232743</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9703</v>
+        <v>9713</v>
       </c>
       <c r="D45" t="n">
-        <v>14222858</v>
+        <v>14234468</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="D46" t="n">
-        <v>5754681</v>
+        <v>5759181</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="D47" t="n">
-        <v>1881211</v>
+        <v>1887211</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5406</v>
+        <v>5411</v>
       </c>
       <c r="D50" t="n">
-        <v>7392811</v>
+        <v>7399088</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6445</v>
+        <v>6452</v>
       </c>
       <c r="D51" t="n">
-        <v>9317321</v>
+        <v>9324874</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14791</v>
+        <v>14800</v>
       </c>
       <c r="D52" t="n">
-        <v>21747653</v>
+        <v>21761049</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4969</v>
+        <v>4971</v>
       </c>
       <c r="D53" t="n">
-        <v>7353496</v>
+        <v>7356496</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="D54" t="n">
-        <v>2056681</v>
+        <v>2061181</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D55" t="n">
-        <v>458366</v>
+        <v>459866</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>47000</v>
+        <v>48500</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6062</v>
+        <v>6068</v>
       </c>
       <c r="D58" t="n">
-        <v>8253055</v>
+        <v>8261204</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="D59" t="n">
-        <v>5020567</v>
+        <v>5022067</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8458</v>
+        <v>8460</v>
       </c>
       <c r="D60" t="n">
-        <v>12384467</v>
+        <v>12387467</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="D61" t="n">
-        <v>3915162</v>
+        <v>3919662</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="D65" t="n">
-        <v>4664438</v>
+        <v>4667438</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="D66" t="n">
-        <v>4187042</v>
+        <v>4188542</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7581</v>
+        <v>7584</v>
       </c>
       <c r="D67" t="n">
-        <v>11076364</v>
+        <v>11080864</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D69" t="n">
-        <v>1060895</v>
+        <v>1062395</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="D72" t="n">
-        <v>4258297</v>
+        <v>4261127</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10232</v>
+        <v>10244</v>
       </c>
       <c r="D73" t="n">
-        <v>14808331</v>
+        <v>14824194</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>24701</v>
+        <v>24727</v>
       </c>
       <c r="D74" t="n">
-        <v>36251723</v>
+        <v>36289253</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8462</v>
+        <v>8468</v>
       </c>
       <c r="D75" t="n">
-        <v>12549423</v>
+        <v>12559419</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2431</v>
+        <v>2438</v>
       </c>
       <c r="D76" t="n">
-        <v>3621372</v>
+        <v>3631872</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D77" t="n">
-        <v>790055</v>
+        <v>791555</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8256</v>
+        <v>8262</v>
       </c>
       <c r="D82" t="n">
-        <v>11309051</v>
+        <v>11315787</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="D83" t="n">
-        <v>4399866</v>
+        <v>4404366</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7085</v>
+        <v>7090</v>
       </c>
       <c r="D84" t="n">
-        <v>10365026</v>
+        <v>10372096</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3206</v>
+        <v>3218</v>
       </c>
       <c r="D85" t="n">
-        <v>4748406</v>
+        <v>4766406</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D86" t="n">
-        <v>1717073</v>
+        <v>1718573</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D87" t="n">
-        <v>564773</v>
+        <v>569273</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D88" t="n">
-        <v>68721</v>
+        <v>70221</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7008</v>
+        <v>7016</v>
       </c>
       <c r="D89" t="n">
-        <v>9835517</v>
+        <v>9847517</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="D90" t="n">
-        <v>3073306</v>
+        <v>3079306</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5321</v>
+        <v>5327</v>
       </c>
       <c r="D91" t="n">
-        <v>7805475</v>
+        <v>7814475</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="D92" t="n">
-        <v>2783529</v>
+        <v>2789151</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="D96" t="n">
-        <v>2762570</v>
+        <v>2764070</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4853</v>
+        <v>4854</v>
       </c>
       <c r="D98" t="n">
-        <v>7111789</v>
+        <v>7113289</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="D99" t="n">
-        <v>2468490</v>
+        <v>2469990</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D100" t="n">
-        <v>735562</v>
+        <v>735948</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D105" t="n">
-        <v>1065173</v>
+        <v>1066673</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D111" t="n">
-        <v>1745083</v>
+        <v>1747857</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="D112" t="n">
-        <v>4169807</v>
+        <v>4174307</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D113" t="n">
-        <v>1236345</v>
+        <v>1237845</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="D119" t="n">
-        <v>2984829</v>
+        <v>2987829</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="D124" t="n">
-        <v>3132694</v>
+        <v>3135694</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6134</v>
+        <v>6143</v>
       </c>
       <c r="D125" t="n">
-        <v>8992759</v>
+        <v>9006259</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D127" t="n">
-        <v>589439</v>
+        <v>590939</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="D130" t="n">
-        <v>3566121</v>
+        <v>3567095</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D136" t="n">
-        <v>482560</v>
+        <v>484510</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3509</v>
+        <v>3516</v>
       </c>
       <c r="D138" t="n">
-        <v>5141499</v>
+        <v>5151999</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="D139" t="n">
-        <v>1494024</v>
+        <v>1498524</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="D144" t="n">
-        <v>4084076</v>
+        <v>4088614</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6422</v>
+        <v>6425</v>
       </c>
       <c r="D145" t="n">
-        <v>9391342</v>
+        <v>9395842</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="D146" t="n">
-        <v>2647963</v>
+        <v>2650963</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="D150" t="n">
-        <v>3314539</v>
+        <v>3316682</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="D151" t="n">
-        <v>5548182</v>
+        <v>5552682</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8682</v>
+        <v>8684</v>
       </c>
       <c r="D152" t="n">
-        <v>12691704</v>
+        <v>12694511</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D154" t="n">
-        <v>1126532</v>
+        <v>1128032</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="D157" t="n">
-        <v>4404313</v>
+        <v>4408064</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3743</v>
+        <v>3746</v>
       </c>
       <c r="D158" t="n">
-        <v>5413991</v>
+        <v>5417031</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>10215</v>
+        <v>10219</v>
       </c>
       <c r="D159" t="n">
-        <v>15055346</v>
+        <v>15061346</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="D160" t="n">
-        <v>4936082</v>
+        <v>4938560</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="n">
-        <v>13101</v>
+        <v>14601</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3421</v>
+        <v>3427</v>
       </c>
       <c r="D164" t="n">
-        <v>4582772</v>
+        <v>4590852</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4039</v>
+        <v>4043</v>
       </c>
       <c r="D165" t="n">
-        <v>5802123</v>
+        <v>5807423</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8332</v>
+        <v>8334</v>
       </c>
       <c r="D166" t="n">
-        <v>12200597</v>
+        <v>12203597</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="D167" t="n">
-        <v>4024770</v>
+        <v>4029270</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D172" t="n">
-        <v>1342465</v>
+        <v>1345465</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D179" t="n">
-        <v>1863396</v>
+        <v>1866396</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="D180" t="n">
-        <v>5584235</v>
+        <v>5588664</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D182" t="n">
-        <v>480324</v>
+        <v>483324</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D183" t="n">
-        <v>72000</v>
+        <v>73500</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6219</v>
+        <v>6222</v>
       </c>
       <c r="D193" t="n">
-        <v>9107131</v>
+        <v>9111631</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="D194" t="n">
-        <v>3197162</v>
+        <v>3200162</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="D198" t="n">
-        <v>3115075</v>
+        <v>3119575</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D199" t="n">
-        <v>2946172</v>
+        <v>2947672</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6070</v>
+        <v>6076</v>
       </c>
       <c r="D200" t="n">
-        <v>8921406</v>
+        <v>8928406</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="D201" t="n">
-        <v>3360339</v>
+        <v>3363339</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="D205" t="n">
-        <v>2678846</v>
+        <v>2680346</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3375</v>
+        <v>3379</v>
       </c>
       <c r="D207" t="n">
-        <v>4952058</v>
+        <v>4958058</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D209" t="n">
-        <v>351235</v>
+        <v>352735</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D212" t="n">
-        <v>1591546</v>
+        <v>1592506</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D213" t="n">
-        <v>1582152</v>
+        <v>1585152</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4077</v>
+        <v>4079</v>
       </c>
       <c r="D214" t="n">
-        <v>5958756</v>
+        <v>5961756</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D215" t="n">
-        <v>3022500</v>
+        <v>3024000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D216" t="n">
-        <v>808309</v>
+        <v>809809</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D219" t="n">
-        <v>1167281</v>
+        <v>1168781</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2570</v>
+        <v>2576</v>
       </c>
       <c r="D220" t="n">
-        <v>3721863</v>
+        <v>3728916</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4550</v>
+        <v>4552</v>
       </c>
       <c r="D221" t="n">
-        <v>6646389</v>
+        <v>6649289</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D222" t="n">
-        <v>2020008</v>
+        <v>2023008</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D224" t="n">
-        <v>85758</v>
+        <v>87258</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="D225" t="n">
-        <v>2542366</v>
+        <v>2546866</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="D227" t="n">
-        <v>3531841</v>
+        <v>3533761</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D228" t="n">
-        <v>1122330</v>
+        <v>1123830</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D232" t="n">
-        <v>1479962</v>
+        <v>1484462</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="D233" t="n">
-        <v>4146048</v>
+        <v>4147548</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4410</v>
+        <v>4411</v>
       </c>
       <c r="D238" t="n">
-        <v>6366357</v>
+        <v>6367816</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>13384</v>
+        <v>13394</v>
       </c>
       <c r="D239" t="n">
-        <v>19616457</v>
+        <v>19631457</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5109</v>
+        <v>5112</v>
       </c>
       <c r="D240" t="n">
-        <v>7574424</v>
+        <v>7578924</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3821</v>
+        <v>3824</v>
       </c>
       <c r="D244" t="n">
-        <v>5165419</v>
+        <v>5169186</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D246" t="n">
-        <v>2140672</v>
+        <v>2142172</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2929</v>
+        <v>2935</v>
       </c>
       <c r="D252" t="n">
-        <v>4238189</v>
+        <v>4247189</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>8464</v>
+        <v>8472</v>
       </c>
       <c r="D253" t="n">
-        <v>12416242</v>
+        <v>12428242</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="D254" t="n">
-        <v>5016920</v>
+        <v>5019920</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D256" t="n">
-        <v>394230</v>
+        <v>395730</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D260" t="n">
-        <v>2920324</v>
+        <v>2921824</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D261" t="n">
-        <v>2797356</v>
+        <v>2797924</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>5402</v>
+        <v>5405</v>
       </c>
       <c r="D262" t="n">
-        <v>7945373</v>
+        <v>7949873</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D267" t="n">
-        <v>2846767</v>
+        <v>2847149</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D268" t="n">
-        <v>2927031</v>
+        <v>2930031</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>5950</v>
+        <v>5952</v>
       </c>
       <c r="D269" t="n">
-        <v>8741492</v>
+        <v>8744492</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="D274" t="n">
-        <v>3172049</v>
+        <v>3173549</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D280" t="n">
-        <v>850102</v>
+        <v>851381</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2854</v>
+        <v>2861</v>
       </c>
       <c r="D281" t="n">
-        <v>4119525</v>
+        <v>4127775</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>9117</v>
+        <v>9120</v>
       </c>
       <c r="D282" t="n">
-        <v>13353388</v>
+        <v>13357888</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="D283" t="n">
-        <v>5552373</v>
+        <v>5553873</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D285" t="n">
-        <v>280656</v>
+        <v>282156</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="D288" t="n">
-        <v>3419504</v>
+        <v>3424004</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D289" t="n">
-        <v>2490102</v>
+        <v>2491602</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>4224</v>
+        <v>4227</v>
       </c>
       <c r="D290" t="n">
-        <v>6183615</v>
+        <v>6186986</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="D291" t="n">
-        <v>1985334</v>
+        <v>1988948</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="D296" t="n">
-        <v>3434026</v>
+        <v>3438526</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>7970</v>
+        <v>7981</v>
       </c>
       <c r="D297" t="n">
-        <v>11706363</v>
+        <v>11723028</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="D298" t="n">
-        <v>3988133</v>
+        <v>3992633</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D299" t="n">
-        <v>1256414</v>
+        <v>1259414</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>7946</v>
+        <v>7953</v>
       </c>
       <c r="D302" t="n">
-        <v>10933196</v>
+        <v>10941837</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="D303" t="n">
-        <v>3298717</v>
+        <v>3316440</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3928</v>
+        <v>3939</v>
       </c>
       <c r="D304" t="n">
-        <v>7849312</v>
+        <v>7882312</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="D305" t="n">
-        <v>3100294</v>
+        <v>3121294</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D306" t="n">
-        <v>1036583</v>
+        <v>1053083</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D307" t="n">
-        <v>391487</v>
+        <v>394487</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="D309" t="n">
-        <v>4743864</v>
+        <v>4752864</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="D310" t="n">
-        <v>1847046</v>
+        <v>1851525</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15550,10 +15550,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D317" t="n">
-        <v>2048687</v>
+        <v>2051307</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>7842</v>
+        <v>7850</v>
       </c>
       <c r="D318" t="n">
-        <v>11307757</v>
+        <v>11318907</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>21370</v>
+        <v>21389</v>
       </c>
       <c r="D319" t="n">
-        <v>31227081</v>
+        <v>31254764</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>7596</v>
+        <v>7600</v>
       </c>
       <c r="D320" t="n">
-        <v>11302850</v>
+        <v>11308850</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D322" t="n">
-        <v>833939</v>
+        <v>838439</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="D326" t="n">
-        <v>3367343</v>
+        <v>3368843</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7096</v>
+        <v>7106</v>
       </c>
       <c r="D327" t="n">
-        <v>10418922</v>
+        <v>10433922</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2435</v>
+        <v>2440</v>
       </c>
       <c r="D328" t="n">
-        <v>3621402</v>
+        <v>3628902</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="D332" t="n">
-        <v>2854794</v>
+        <v>2856294</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>11404</v>
+        <v>11411</v>
       </c>
       <c r="D334" t="n">
-        <v>16642876</v>
+        <v>16653376</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="D335" t="n">
-        <v>5445021</v>
+        <v>5446521</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D337" t="n">
-        <v>314349</v>
+        <v>315849</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="D340" t="n">
-        <v>5235325</v>
+        <v>5236255</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4548</v>
+        <v>4552</v>
       </c>
       <c r="D342" t="n">
-        <v>6630767</v>
+        <v>6636689</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="D343" t="n">
-        <v>2555028</v>
+        <v>2562528</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1771</v>
+        <v>1775</v>
       </c>
       <c r="D347" t="n">
-        <v>2275147</v>
+        <v>2278451</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>4241</v>
+        <v>4245</v>
       </c>
       <c r="D348" t="n">
-        <v>6191417</v>
+        <v>6197417</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>11678</v>
+        <v>11701</v>
       </c>
       <c r="D349" t="n">
-        <v>17219207</v>
+        <v>17251572</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4340</v>
+        <v>4343</v>
       </c>
       <c r="D350" t="n">
-        <v>6458859</v>
+        <v>6463857</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="D351" t="n">
-        <v>1923679</v>
+        <v>1935679</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>4003</v>
+        <v>4013</v>
       </c>
       <c r="D356" t="n">
-        <v>5508550</v>
+        <v>5521468</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>8088</v>
+        <v>8105</v>
       </c>
       <c r="D357" t="n">
-        <v>11764313</v>
+        <v>11787671</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>18663</v>
+        <v>18695</v>
       </c>
       <c r="D358" t="n">
-        <v>27466952</v>
+        <v>27513532</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>7974</v>
+        <v>7990</v>
       </c>
       <c r="D359" t="n">
-        <v>11885255</v>
+        <v>11909753</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2408</v>
+        <v>2413</v>
       </c>
       <c r="D360" t="n">
-        <v>3595242</v>
+        <v>3602739</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D361" t="n">
-        <v>856711</v>
+        <v>861211</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>6947</v>
+        <v>6955</v>
       </c>
       <c r="D363" t="n">
-        <v>9412733</v>
+        <v>9422524</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>23020</v>
+        <v>23061</v>
       </c>
       <c r="D364" t="n">
-        <v>33381615</v>
+        <v>33439477</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>61283</v>
+        <v>61401</v>
       </c>
       <c r="D365" t="n">
-        <v>90187853</v>
+        <v>90356842</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>28970</v>
+        <v>29046</v>
       </c>
       <c r="D366" t="n">
-        <v>43188642</v>
+        <v>43300534</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>10844</v>
+        <v>10881</v>
       </c>
       <c r="D367" t="n">
-        <v>16203187</v>
+        <v>16258687</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3089</v>
+        <v>3111</v>
       </c>
       <c r="D368" t="n">
-        <v>4610473</v>
+        <v>4643473</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D369" t="n">
-        <v>341488</v>
+        <v>344488</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>22519</v>
+        <v>22566</v>
       </c>
       <c r="D374" t="n">
-        <v>30232272</v>
+        <v>30288489</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>5125</v>
+        <v>5135</v>
       </c>
       <c r="D375" t="n">
-        <v>7453279</v>
+        <v>7467429</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>13701</v>
+        <v>13718</v>
       </c>
       <c r="D376" t="n">
-        <v>20120505</v>
+        <v>20146005</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>5062</v>
+        <v>5070</v>
       </c>
       <c r="D377" t="n">
-        <v>7517454</v>
+        <v>7529454</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="D378" t="n">
-        <v>2325481</v>
+        <v>2328481</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>5289</v>
+        <v>5292</v>
       </c>
       <c r="D381" t="n">
-        <v>7168097</v>
+        <v>7169952</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>6872</v>
+        <v>6892</v>
       </c>
       <c r="D382" t="n">
-        <v>9969755</v>
+        <v>9999755</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>22702</v>
+        <v>22733</v>
       </c>
       <c r="D383" t="n">
-        <v>33405713</v>
+        <v>33452213</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>9901</v>
+        <v>9917</v>
       </c>
       <c r="D384" t="n">
-        <v>14743413</v>
+        <v>14767413</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="D385" t="n">
-        <v>4102466</v>
+        <v>4105466</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>7107</v>
+        <v>7129</v>
       </c>
       <c r="D388" t="n">
-        <v>9542420</v>
+        <v>9561489</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>5919</v>
+        <v>5928</v>
       </c>
       <c r="D389" t="n">
-        <v>8627908</v>
+        <v>8640721</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>16281</v>
+        <v>16300</v>
       </c>
       <c r="D390" t="n">
-        <v>23936148</v>
+        <v>23964429</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>6396</v>
+        <v>6403</v>
       </c>
       <c r="D391" t="n">
-        <v>9518245</v>
+        <v>9528745</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="D392" t="n">
-        <v>2772914</v>
+        <v>2777414</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D393" t="n">
-        <v>705782</v>
+        <v>707282</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>6229</v>
+        <v>6238</v>
       </c>
       <c r="D396" t="n">
-        <v>8386623</v>
+        <v>8397202</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>4441</v>
+        <v>4447</v>
       </c>
       <c r="D397" t="n">
-        <v>6469403</v>
+        <v>6476594</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>13322</v>
+        <v>13340</v>
       </c>
       <c r="D398" t="n">
-        <v>19631300</v>
+        <v>19653604</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5294</v>
+        <v>5297</v>
       </c>
       <c r="D399" t="n">
-        <v>7871810</v>
+        <v>7876310</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D401" t="n">
-        <v>535553</v>
+        <v>537053</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4686</v>
+        <v>4691</v>
       </c>
       <c r="D404" t="n">
-        <v>6256820</v>
+        <v>6263066</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4746</v>
+        <v>4750</v>
       </c>
       <c r="D405" t="n">
-        <v>6916726</v>
+        <v>6922726</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>12428</v>
+        <v>12432</v>
       </c>
       <c r="D406" t="n">
-        <v>18299241</v>
+        <v>18305241</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4701</v>
+        <v>4706</v>
       </c>
       <c r="D407" t="n">
-        <v>6993686</v>
+        <v>7000466</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D409" t="n">
-        <v>519310</v>
+        <v>522310</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4673</v>
+        <v>4678</v>
       </c>
       <c r="D411" t="n">
-        <v>6373611</v>
+        <v>6379321</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>5131</v>
+        <v>5133</v>
       </c>
       <c r="D412" t="n">
-        <v>7432873</v>
+        <v>7435873</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>12607</v>
+        <v>12616</v>
       </c>
       <c r="D413" t="n">
-        <v>18512943</v>
+        <v>18525814</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="D414" t="n">
-        <v>6160126</v>
+        <v>6163126</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D415" t="n">
-        <v>2172111</v>
+        <v>2173611</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5869</v>
+        <v>5874</v>
       </c>
       <c r="D419" t="n">
-        <v>7870374</v>
+        <v>7877874</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="D420" t="n">
-        <v>2654493</v>
+        <v>2661993</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5858</v>
+        <v>5865</v>
       </c>
       <c r="D421" t="n">
-        <v>8632257</v>
+        <v>8642757</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="D422" t="n">
-        <v>3138931</v>
+        <v>3143431</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D424" t="n">
-        <v>337111</v>
+        <v>339109</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D425" t="n">
-        <v>36000</v>
+        <v>37500</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3981</v>
+        <v>3984</v>
       </c>
       <c r="D427" t="n">
-        <v>5276663</v>
+        <v>5280363</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D428" t="n">
-        <v>1770061</v>
+        <v>1779061</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D429" t="n">
-        <v>1253284</v>
+        <v>1259284</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>7824</v>
+        <v>7826</v>
       </c>
       <c r="D434" t="n">
-        <v>11462310</v>
+        <v>11464610</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D435" t="n">
-        <v>3913892</v>
+        <v>3916892</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="D439" t="n">
-        <v>3429187</v>
+        <v>3429701</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="D440" t="n">
-        <v>2828284</v>
+        <v>2830282</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>5236</v>
+        <v>5239</v>
       </c>
       <c r="D441" t="n">
-        <v>7683949</v>
+        <v>7688113</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="D442" t="n">
-        <v>2548160</v>
+        <v>2552660</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D447" t="n">
-        <v>2365986</v>
+        <v>2367486</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="D448" t="n">
-        <v>3128051</v>
+        <v>3129551</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>5151</v>
+        <v>5152</v>
       </c>
       <c r="D449" t="n">
-        <v>7558988</v>
+        <v>7560488</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D451" t="n">
-        <v>698663</v>
+        <v>700163</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="D454" t="n">
-        <v>2281938</v>
+        <v>2283810</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D455" t="n">
-        <v>1481579</v>
+        <v>1483079</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="D461" t="n">
-        <v>4880771</v>
+        <v>4883771</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>10072</v>
+        <v>10077</v>
       </c>
       <c r="D462" t="n">
-        <v>14810744</v>
+        <v>14817372</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="D463" t="n">
-        <v>5406165</v>
+        <v>5410665</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="D467" t="n">
-        <v>4179228</v>
+        <v>4184164</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="D469" t="n">
-        <v>5017921</v>
+        <v>5019421</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D470" t="n">
-        <v>1629983</v>
+        <v>1631483</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D474" t="n">
-        <v>1846363</v>
+        <v>1847863</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>4732</v>
+        <v>4736</v>
       </c>
       <c r="D475" t="n">
-        <v>6844187</v>
+        <v>6849775</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>8626</v>
+        <v>8627</v>
       </c>
       <c r="D476" t="n">
-        <v>12636036</v>
+        <v>12637536</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="D483" t="n">
-        <v>3999002</v>
+        <v>4003502</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D487" t="n">
-        <v>1976331</v>
+        <v>1977831</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D489" t="n">
-        <v>1660296</v>
+        <v>1662792</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23998,10 +23998,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D493" t="n">
-        <v>843089</v>
+        <v>844719</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D497" t="n">
-        <v>401281</v>
+        <v>402781</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="D499" t="n">
-        <v>1513491</v>
+        <v>1517991</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3081</v>
+        <v>3086</v>
       </c>
       <c r="D500" t="n">
-        <v>4399831</v>
+        <v>4406057</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>5650</v>
+        <v>5653</v>
       </c>
       <c r="D501" t="n">
-        <v>8267465</v>
+        <v>8271965</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="D506" t="n">
-        <v>3326152</v>
+        <v>3327652</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>9809</v>
+        <v>9824</v>
       </c>
       <c r="D507" t="n">
-        <v>14204195</v>
+        <v>14224983</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>20185</v>
+        <v>20204</v>
       </c>
       <c r="D508" t="n">
-        <v>29522499</v>
+        <v>29550119</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>6825</v>
+        <v>6831</v>
       </c>
       <c r="D509" t="n">
-        <v>10139783</v>
+        <v>10148783</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="D510" t="n">
-        <v>3224857</v>
+        <v>3227857</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D511" t="n">
-        <v>728318</v>
+        <v>729818</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D512" t="n">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>7257</v>
+        <v>7262</v>
       </c>
       <c r="D515" t="n">
-        <v>9779610</v>
+        <v>9785670</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D518" t="n">
-        <v>1681064</v>
+        <v>1682564</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D520" t="n">
-        <v>124998</v>
+        <v>126996</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="D523" t="n">
-        <v>4568346</v>
+        <v>4569846</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>5352</v>
+        <v>5358</v>
       </c>
       <c r="D524" t="n">
-        <v>7831358</v>
+        <v>7840358</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D529" t="n">
-        <v>2338009</v>
+        <v>2339509</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="D530" t="n">
-        <v>2569067</v>
+        <v>2572067</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="D531" t="n">
-        <v>5409748</v>
+        <v>5411248</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="D536" t="n">
-        <v>2139839</v>
+        <v>2141839</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>9880</v>
+        <v>9893</v>
       </c>
       <c r="D538" t="n">
-        <v>14438564</v>
+        <v>14458064</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="D539" t="n">
-        <v>4869037</v>
+        <v>4870537</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>3669</v>
+        <v>3675</v>
       </c>
       <c r="D546" t="n">
-        <v>5341602</v>
+        <v>5350155</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D552" t="n">
-        <v>785814</v>
+        <v>787114</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="D553" t="n">
-        <v>2820308</v>
+        <v>2822570</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D558" t="n">
-        <v>1154528</v>
+        <v>1156028</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>5532</v>
+        <v>5538</v>
       </c>
       <c r="D560" t="n">
-        <v>8092971</v>
+        <v>8101971</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="D561" t="n">
-        <v>2431325</v>
+        <v>2434325</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D565" t="n">
-        <v>2641711</v>
+        <v>2641881</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="D567" t="n">
-        <v>5726077</v>
+        <v>5727577</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D576" t="n">
-        <v>1074390</v>
+        <v>1075890</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="D579" t="n">
-        <v>5772237</v>
+        <v>5773737</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D585" t="n">
-        <v>1794827</v>
+        <v>1796111</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>7011</v>
+        <v>7017</v>
       </c>
       <c r="D586" t="n">
-        <v>10109401</v>
+        <v>10117715</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>16585</v>
+        <v>16605</v>
       </c>
       <c r="D587" t="n">
-        <v>24287654</v>
+        <v>24317394</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>5815</v>
+        <v>5818</v>
       </c>
       <c r="D588" t="n">
-        <v>8638141</v>
+        <v>8642641</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="D589" t="n">
-        <v>2707802</v>
+        <v>2715302</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D590" t="n">
-        <v>580645</v>
+        <v>583645</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>6643</v>
+        <v>6646</v>
       </c>
       <c r="D593" t="n">
-        <v>8836800</v>
+        <v>8841300</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="D594" t="n">
-        <v>2633230</v>
+        <v>2637730</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3627</v>
+        <v>3633</v>
       </c>
       <c r="D595" t="n">
-        <v>5240147</v>
+        <v>5247695</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D597" t="n">
-        <v>458922</v>
+        <v>461922</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>9599</v>
+        <v>9609</v>
       </c>
       <c r="D601" t="n">
-        <v>13911156</v>
+        <v>13926156</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>19986</v>
+        <v>20008</v>
       </c>
       <c r="D602" t="n">
-        <v>29256996</v>
+        <v>29286158</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>5892</v>
+        <v>5893</v>
       </c>
       <c r="D603" t="n">
-        <v>8761571</v>
+        <v>8763071</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>6517</v>
+        <v>6524</v>
       </c>
       <c r="D607" t="n">
-        <v>8649650</v>
+        <v>8658001</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="D608" t="n">
-        <v>2019605</v>
+        <v>2022605</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="D609" t="n">
-        <v>3563422</v>
+        <v>3567922</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D610" t="n">
-        <v>1001823</v>
+        <v>1003323</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D614" t="n">
-        <v>1701500</v>
+        <v>1703000</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>4441</v>
+        <v>4443</v>
       </c>
       <c r="D621" t="n">
-        <v>6444909</v>
+        <v>6447509</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>7164</v>
+        <v>7169</v>
       </c>
       <c r="D622" t="n">
-        <v>10413456</v>
+        <v>10420956</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>2217</v>
+        <v>2222</v>
       </c>
       <c r="D623" t="n">
-        <v>3293461</v>
+        <v>3300961</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="D628" t="n">
-        <v>2701337</v>
+        <v>2703917</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>4467</v>
+        <v>4469</v>
       </c>
       <c r="D629" t="n">
-        <v>6555674</v>
+        <v>6558674</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D630" t="n">
-        <v>1968880</v>
+        <v>1970380</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="D635" t="n">
-        <v>1764361</v>
+        <v>1769260</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D641" t="n">
-        <v>1725289</v>
+        <v>1726789</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>5866</v>
+        <v>5870</v>
       </c>
       <c r="D642" t="n">
-        <v>8503031</v>
+        <v>8509031</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>13291</v>
+        <v>13306</v>
       </c>
       <c r="D643" t="n">
-        <v>19530526</v>
+        <v>19551079</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>4947</v>
+        <v>4951</v>
       </c>
       <c r="D644" t="n">
-        <v>7338343</v>
+        <v>7344343</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>4579</v>
+        <v>4583</v>
       </c>
       <c r="D649" t="n">
-        <v>6105038</v>
+        <v>6109128</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="D650" t="n">
-        <v>3577661</v>
+        <v>3578342</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>7389</v>
+        <v>7391</v>
       </c>
       <c r="D651" t="n">
-        <v>10857952</v>
+        <v>10860378</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>2420</v>
+        <v>2424</v>
       </c>
       <c r="D652" t="n">
-        <v>3592896</v>
+        <v>3598896</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="D657" t="n">
-        <v>3266814</v>
+        <v>3267164</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D658" t="n">
-        <v>1451445</v>
+        <v>1457445</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="D659" t="n">
-        <v>3915743</v>
+        <v>3918743</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D660" t="n">
-        <v>1307290</v>
+        <v>1308790</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D665" t="n">
-        <v>2417242</v>
+        <v>2421742</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>4477</v>
+        <v>4482</v>
       </c>
       <c r="D666" t="n">
-        <v>6571959</v>
+        <v>6579459</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D668" t="n">
-        <v>597899</v>
+        <v>599399</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>6759</v>
+        <v>6764</v>
       </c>
       <c r="D673" t="n">
-        <v>9889494</v>
+        <v>9896085</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>2202</v>
+        <v>2207</v>
       </c>
       <c r="D679" t="n">
-        <v>2925646</v>
+        <v>2931649</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="D680" t="n">
-        <v>2439763</v>
+        <v>2447263</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>10033</v>
+        <v>10042</v>
       </c>
       <c r="D687" t="n">
-        <v>14524407</v>
+        <v>14537069</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>23163</v>
+        <v>23184</v>
       </c>
       <c r="D688" t="n">
-        <v>33966665</v>
+        <v>33996899</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>6868</v>
+        <v>6877</v>
       </c>
       <c r="D689" t="n">
-        <v>10208985</v>
+        <v>10222485</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D690" t="n">
-        <v>2984796</v>
+        <v>2986296</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D691" t="n">
-        <v>724277</v>
+        <v>730277</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>8342</v>
+        <v>8346</v>
       </c>
       <c r="D694" t="n">
-        <v>11309532</v>
+        <v>11314890</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>11923</v>
+        <v>11943</v>
       </c>
       <c r="D695" t="n">
-        <v>17293504</v>
+        <v>17318153</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>31818</v>
+        <v>31887</v>
       </c>
       <c r="D696" t="n">
-        <v>46653678</v>
+        <v>46752663</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>10038</v>
+        <v>10087</v>
       </c>
       <c r="D697" t="n">
-        <v>14941788</v>
+        <v>15017932</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>2720</v>
+        <v>2735</v>
       </c>
       <c r="D698" t="n">
-        <v>4053916</v>
+        <v>4076737</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D699" t="n">
-        <v>1060868</v>
+        <v>1074359</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>10337</v>
+        <v>10350</v>
       </c>
       <c r="D702" t="n">
-        <v>13858354</v>
+        <v>13877009</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34078,10 +34078,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D703" t="n">
-        <v>2066668</v>
+        <v>2069668</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>2926</v>
+        <v>2932</v>
       </c>
       <c r="D704" t="n">
-        <v>4272640</v>
+        <v>4280742</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D705" t="n">
-        <v>1689865</v>
+        <v>1692865</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D709" t="n">
-        <v>3067037</v>
+        <v>3068537</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>9810</v>
+        <v>9822</v>
       </c>
       <c r="D710" t="n">
-        <v>14047439</v>
+        <v>14064794</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>18099</v>
+        <v>18111</v>
       </c>
       <c r="D711" t="n">
-        <v>26396428</v>
+        <v>26412582</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>4953</v>
+        <v>4956</v>
       </c>
       <c r="D712" t="n">
-        <v>7357360</v>
+        <v>7361573</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34750,10 +34750,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>6012</v>
+        <v>6013</v>
       </c>
       <c r="D717" t="n">
-        <v>8088266</v>
+        <v>8089266</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4283</v>
+        <v>4285</v>
       </c>
       <c r="D718" t="n">
-        <v>6183217</v>
+        <v>6185689</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>10593</v>
+        <v>10599</v>
       </c>
       <c r="D719" t="n">
-        <v>15509027</v>
+        <v>15516632</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="D720" t="n">
-        <v>4272672</v>
+        <v>4274172</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>3459</v>
+        <v>3461</v>
       </c>
       <c r="D724" t="n">
-        <v>4535533</v>
+        <v>4537036</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D2" t="n">
-        <v>2012502</v>
+        <v>2015252</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6182</v>
+        <v>6184</v>
       </c>
       <c r="D3" t="n">
-        <v>9071105</v>
+        <v>9074105</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="D4" t="n">
-        <v>3260632</v>
+        <v>3264130</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D8" t="n">
-        <v>991293</v>
+        <v>992793</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="D17" t="n">
-        <v>6619536</v>
+        <v>6620840</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="D24" t="n">
-        <v>2974196</v>
+        <v>2975696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="D32" t="n">
-        <v>3119922</v>
+        <v>3121422</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D34" t="n">
-        <v>183049</v>
+        <v>186049</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D37" t="n">
-        <v>1932516</v>
+        <v>1935516</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D39" t="n">
-        <v>1232743</v>
+        <v>1235743</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4404</v>
+        <v>4406</v>
       </c>
       <c r="D44" t="n">
-        <v>6396973</v>
+        <v>6399973</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9713</v>
+        <v>9719</v>
       </c>
       <c r="D45" t="n">
-        <v>14234468</v>
+        <v>14243468</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="D46" t="n">
-        <v>5759181</v>
+        <v>5760681</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D47" t="n">
-        <v>1887211</v>
+        <v>1888711</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D48" t="n">
-        <v>592950</v>
+        <v>594450</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5411</v>
+        <v>5414</v>
       </c>
       <c r="D50" t="n">
-        <v>7399088</v>
+        <v>7402044</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6452</v>
+        <v>6458</v>
       </c>
       <c r="D51" t="n">
-        <v>9324874</v>
+        <v>9333874</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14800</v>
+        <v>14810</v>
       </c>
       <c r="D52" t="n">
-        <v>21761049</v>
+        <v>21776877</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4971</v>
+        <v>4973</v>
       </c>
       <c r="D53" t="n">
-        <v>7356496</v>
+        <v>7358262</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D54" t="n">
-        <v>2061181</v>
+        <v>2062681</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>48500</v>
+        <v>50000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6068</v>
+        <v>6070</v>
       </c>
       <c r="D58" t="n">
-        <v>8261204</v>
+        <v>8264204</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3482</v>
+        <v>3486</v>
       </c>
       <c r="D59" t="n">
-        <v>5022067</v>
+        <v>5025633</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8460</v>
+        <v>8466</v>
       </c>
       <c r="D60" t="n">
-        <v>12387467</v>
+        <v>12396965</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="D61" t="n">
-        <v>3919662</v>
+        <v>3921426</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="D65" t="n">
-        <v>4667438</v>
+        <v>4669672</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="D66" t="n">
-        <v>4188542</v>
+        <v>4192642</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7584</v>
+        <v>7587</v>
       </c>
       <c r="D67" t="n">
-        <v>11080864</v>
+        <v>11085364</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="D68" t="n">
-        <v>3755534</v>
+        <v>3757034</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="D72" t="n">
-        <v>4261127</v>
+        <v>4264585</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10244</v>
+        <v>10254</v>
       </c>
       <c r="D73" t="n">
-        <v>14824194</v>
+        <v>14839194</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>24727</v>
+        <v>24749</v>
       </c>
       <c r="D74" t="n">
-        <v>36289253</v>
+        <v>36320882</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8468</v>
+        <v>8478</v>
       </c>
       <c r="D75" t="n">
-        <v>12559419</v>
+        <v>12572999</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="D76" t="n">
-        <v>3631872</v>
+        <v>3633372</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D77" t="n">
-        <v>791555</v>
+        <v>793055</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8262</v>
+        <v>8268</v>
       </c>
       <c r="D82" t="n">
-        <v>11315787</v>
+        <v>11320085</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="D83" t="n">
-        <v>4404366</v>
+        <v>4407366</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7090</v>
+        <v>7100</v>
       </c>
       <c r="D84" t="n">
-        <v>10372096</v>
+        <v>10386992</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="D85" t="n">
-        <v>4766406</v>
+        <v>4770906</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D86" t="n">
-        <v>1718573</v>
+        <v>1721573</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D87" t="n">
-        <v>569273</v>
+        <v>570773</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7016</v>
+        <v>7021</v>
       </c>
       <c r="D89" t="n">
-        <v>9847517</v>
+        <v>9853171</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5327</v>
+        <v>5331</v>
       </c>
       <c r="D91" t="n">
-        <v>7814475</v>
+        <v>7819803</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D92" t="n">
-        <v>2789151</v>
+        <v>2790651</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D93" t="n">
-        <v>793805</v>
+        <v>795305</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D94" t="n">
-        <v>149175</v>
+        <v>152175</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D97" t="n">
-        <v>2682137</v>
+        <v>2683637</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4854</v>
+        <v>4855</v>
       </c>
       <c r="D98" t="n">
-        <v>7113289</v>
+        <v>7114789</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D99" t="n">
-        <v>2469990</v>
+        <v>2471490</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="D106" t="n">
-        <v>2729488</v>
+        <v>2735488</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D110" t="n">
-        <v>1164738</v>
+        <v>1165738</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="D112" t="n">
-        <v>4174307</v>
+        <v>4178238</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D118" t="n">
-        <v>1127359</v>
+        <v>1128859</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="D124" t="n">
-        <v>3135694</v>
+        <v>3140194</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6143</v>
+        <v>6145</v>
       </c>
       <c r="D125" t="n">
-        <v>9006259</v>
+        <v>9009259</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="D130" t="n">
-        <v>3567095</v>
+        <v>3568595</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D132" t="n">
-        <v>1788251</v>
+        <v>1789751</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D137" t="n">
-        <v>1751071</v>
+        <v>1754071</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="D138" t="n">
-        <v>5151999</v>
+        <v>5154999</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D139" t="n">
-        <v>1498524</v>
+        <v>1501524</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="D143" t="n">
-        <v>1608015</v>
+        <v>1609809</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="D144" t="n">
-        <v>4088614</v>
+        <v>4092242</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="D145" t="n">
-        <v>9395842</v>
+        <v>9400342</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3857</v>
+        <v>3859</v>
       </c>
       <c r="D151" t="n">
-        <v>5552682</v>
+        <v>5555682</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="D153" t="n">
-        <v>4480446</v>
+        <v>4483446</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D154" t="n">
-        <v>1128032</v>
+        <v>1131032</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3316</v>
+        <v>3321</v>
       </c>
       <c r="D157" t="n">
-        <v>4408064</v>
+        <v>4413229</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="D158" t="n">
-        <v>5417031</v>
+        <v>5418531</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>10219</v>
+        <v>10225</v>
       </c>
       <c r="D159" t="n">
-        <v>15061346</v>
+        <v>15070124</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3319</v>
+        <v>3326</v>
       </c>
       <c r="D160" t="n">
-        <v>4938560</v>
+        <v>4949406</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4043</v>
+        <v>4047</v>
       </c>
       <c r="D165" t="n">
-        <v>5807423</v>
+        <v>5812363</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8334</v>
+        <v>8335</v>
       </c>
       <c r="D166" t="n">
-        <v>12203597</v>
+        <v>12205097</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="D171" t="n">
-        <v>4299946</v>
+        <v>4300099</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="D173" t="n">
-        <v>3944304</v>
+        <v>3945804</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D178" t="n">
-        <v>1629646</v>
+        <v>1632646</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D179" t="n">
-        <v>1866396</v>
+        <v>1867752</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3790</v>
+        <v>3794</v>
       </c>
       <c r="D180" t="n">
-        <v>5588664</v>
+        <v>5594664</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D181" t="n">
-        <v>1832307</v>
+        <v>1833807</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D191" t="n">
-        <v>1188100</v>
+        <v>1189600</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6222</v>
+        <v>6226</v>
       </c>
       <c r="D193" t="n">
-        <v>9111631</v>
+        <v>9117631</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="D198" t="n">
-        <v>3119575</v>
+        <v>3120262</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6076</v>
+        <v>6080</v>
       </c>
       <c r="D200" t="n">
-        <v>8928406</v>
+        <v>8934039</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D203" t="n">
-        <v>165000</v>
+        <v>166500</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2048</v>
+        <v>2054</v>
       </c>
       <c r="D205" t="n">
-        <v>2680346</v>
+        <v>2687881</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D206" t="n">
-        <v>1600324</v>
+        <v>1601824</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="D207" t="n">
-        <v>4958058</v>
+        <v>4959558</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D212" t="n">
-        <v>1592506</v>
+        <v>1592943</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D213" t="n">
-        <v>1585152</v>
+        <v>1587652</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4079</v>
+        <v>4082</v>
       </c>
       <c r="D214" t="n">
-        <v>5961756</v>
+        <v>5964956</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D216" t="n">
-        <v>809809</v>
+        <v>812809</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4552</v>
+        <v>4558</v>
       </c>
       <c r="D221" t="n">
-        <v>6649289</v>
+        <v>6658289</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="D225" t="n">
-        <v>2546866</v>
+        <v>2550991</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="D227" t="n">
-        <v>3533761</v>
+        <v>3535261</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D235" t="n">
-        <v>364639</v>
+        <v>366139</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4411</v>
+        <v>4413</v>
       </c>
       <c r="D238" t="n">
-        <v>6367816</v>
+        <v>6370816</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>13394</v>
+        <v>13403</v>
       </c>
       <c r="D239" t="n">
-        <v>19631457</v>
+        <v>19644957</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5112</v>
+        <v>5113</v>
       </c>
       <c r="D240" t="n">
-        <v>7578924</v>
+        <v>7580424</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D242" t="n">
-        <v>598262</v>
+        <v>599762</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3824</v>
+        <v>3827</v>
       </c>
       <c r="D244" t="n">
-        <v>5169186</v>
+        <v>5172386</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>8472</v>
+        <v>8476</v>
       </c>
       <c r="D253" t="n">
-        <v>12428242</v>
+        <v>12433042</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D255" t="n">
-        <v>1408775</v>
+        <v>1410275</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="D260" t="n">
-        <v>2921824</v>
+        <v>2924566</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="D261" t="n">
-        <v>2797924</v>
+        <v>2800924</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>5405</v>
+        <v>5412</v>
       </c>
       <c r="D262" t="n">
-        <v>7949873</v>
+        <v>7960373</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="D263" t="n">
-        <v>2870105</v>
+        <v>2871605</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="D267" t="n">
-        <v>2847149</v>
+        <v>2851649</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D268" t="n">
-        <v>2930031</v>
+        <v>2932458</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="D269" t="n">
-        <v>8744492</v>
+        <v>8745992</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D272" t="n">
-        <v>267682</v>
+        <v>269182</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D280" t="n">
-        <v>851381</v>
+        <v>852097</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="D281" t="n">
-        <v>4127775</v>
+        <v>4129225</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>9120</v>
+        <v>9123</v>
       </c>
       <c r="D282" t="n">
-        <v>13357888</v>
+        <v>13360842</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="D288" t="n">
-        <v>3424004</v>
+        <v>3426304</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="D290" t="n">
-        <v>6186986</v>
+        <v>6187614</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="D295" t="n">
-        <v>2313030</v>
+        <v>2314530</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>7981</v>
+        <v>7987</v>
       </c>
       <c r="D297" t="n">
-        <v>11723028</v>
+        <v>11732028</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="D298" t="n">
-        <v>3992633</v>
+        <v>3995633</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D299" t="n">
-        <v>1259414</v>
+        <v>1262414</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>7953</v>
+        <v>7957</v>
       </c>
       <c r="D302" t="n">
-        <v>10941837</v>
+        <v>10947304</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="D303" t="n">
-        <v>3316440</v>
+        <v>3326816</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3939</v>
+        <v>3944</v>
       </c>
       <c r="D304" t="n">
-        <v>7882312</v>
+        <v>7897312</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="D305" t="n">
-        <v>3121294</v>
+        <v>3130126</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D306" t="n">
-        <v>1053083</v>
+        <v>1059083</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D307" t="n">
-        <v>394487</v>
+        <v>397487</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2561</v>
+        <v>2568</v>
       </c>
       <c r="D309" t="n">
-        <v>4752864</v>
+        <v>4769464</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="D311" t="n">
-        <v>5638250</v>
+        <v>5639750</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>7850</v>
+        <v>7861</v>
       </c>
       <c r="D318" t="n">
-        <v>11318907</v>
+        <v>11335905</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>21389</v>
+        <v>21414</v>
       </c>
       <c r="D319" t="n">
-        <v>31254764</v>
+        <v>31291001</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>7600</v>
+        <v>7604</v>
       </c>
       <c r="D320" t="n">
-        <v>11308850</v>
+        <v>11315348</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="D321" t="n">
-        <v>3466362</v>
+        <v>3469362</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D322" t="n">
-        <v>838439</v>
+        <v>839939</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>6669</v>
+        <v>6673</v>
       </c>
       <c r="D325" t="n">
-        <v>8742465</v>
+        <v>8748465</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="D326" t="n">
-        <v>3368843</v>
+        <v>3371843</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7106</v>
+        <v>7110</v>
       </c>
       <c r="D327" t="n">
-        <v>10433922</v>
+        <v>10439922</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="D328" t="n">
-        <v>3628902</v>
+        <v>3631892</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="D332" t="n">
-        <v>2856294</v>
+        <v>2856572</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>11411</v>
+        <v>11415</v>
       </c>
       <c r="D334" t="n">
-        <v>16653376</v>
+        <v>16658710</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="D335" t="n">
-        <v>5446521</v>
+        <v>5448021</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D336" t="n">
-        <v>1727284</v>
+        <v>1730284</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D337" t="n">
-        <v>315849</v>
+        <v>317349</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="D340" t="n">
-        <v>5236255</v>
+        <v>5237024</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4552</v>
+        <v>4557</v>
       </c>
       <c r="D342" t="n">
-        <v>6636689</v>
+        <v>6643089</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D343" t="n">
-        <v>2562528</v>
+        <v>2564028</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D344" t="n">
-        <v>621589</v>
+        <v>624589</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>11701</v>
+        <v>11708</v>
       </c>
       <c r="D349" t="n">
-        <v>17251572</v>
+        <v>17260335</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="D350" t="n">
-        <v>6463857</v>
+        <v>6465357</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D351" t="n">
-        <v>1935679</v>
+        <v>1937179</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>4013</v>
+        <v>4021</v>
       </c>
       <c r="D356" t="n">
-        <v>5521468</v>
+        <v>5531134</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>8105</v>
+        <v>8111</v>
       </c>
       <c r="D357" t="n">
-        <v>11787671</v>
+        <v>11795076</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>18695</v>
+        <v>18710</v>
       </c>
       <c r="D358" t="n">
-        <v>27513532</v>
+        <v>27536351</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>7990</v>
+        <v>7998</v>
       </c>
       <c r="D359" t="n">
-        <v>11909753</v>
+        <v>11921341</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="D360" t="n">
-        <v>3602739</v>
+        <v>3607239</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D361" t="n">
-        <v>861211</v>
+        <v>862711</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D362" t="n">
-        <v>62803</v>
+        <v>64801</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>6955</v>
+        <v>6965</v>
       </c>
       <c r="D363" t="n">
-        <v>9422524</v>
+        <v>9437018</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>23061</v>
+        <v>23089</v>
       </c>
       <c r="D364" t="n">
-        <v>33439477</v>
+        <v>33480824</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17854,10 +17854,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>61401</v>
+        <v>61472</v>
       </c>
       <c r="D365" t="n">
-        <v>90356842</v>
+        <v>90461362</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>29046</v>
+        <v>29089</v>
       </c>
       <c r="D366" t="n">
-        <v>43300534</v>
+        <v>43364478</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>10881</v>
+        <v>10905</v>
       </c>
       <c r="D367" t="n">
-        <v>16258687</v>
+        <v>16294687</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3111</v>
+        <v>3126</v>
       </c>
       <c r="D368" t="n">
-        <v>4643473</v>
+        <v>4665973</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D369" t="n">
-        <v>344488</v>
+        <v>345988</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>22566</v>
+        <v>22599</v>
       </c>
       <c r="D374" t="n">
-        <v>30288489</v>
+        <v>30333320</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>5135</v>
+        <v>5138</v>
       </c>
       <c r="D375" t="n">
-        <v>7467429</v>
+        <v>7471929</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>13718</v>
+        <v>13730</v>
       </c>
       <c r="D376" t="n">
-        <v>20146005</v>
+        <v>20162519</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>5070</v>
+        <v>5076</v>
       </c>
       <c r="D377" t="n">
-        <v>7529454</v>
+        <v>7538454</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D378" t="n">
-        <v>2328481</v>
+        <v>2329981</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D379" t="n">
-        <v>493020</v>
+        <v>494520</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>5292</v>
+        <v>5297</v>
       </c>
       <c r="D381" t="n">
-        <v>7169952</v>
+        <v>7176302</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>6892</v>
+        <v>6896</v>
       </c>
       <c r="D382" t="n">
-        <v>9999755</v>
+        <v>10005755</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>22733</v>
+        <v>22748</v>
       </c>
       <c r="D383" t="n">
-        <v>33452213</v>
+        <v>33474436</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>9917</v>
+        <v>9928</v>
       </c>
       <c r="D384" t="n">
-        <v>14767413</v>
+        <v>14783913</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2747</v>
+        <v>2753</v>
       </c>
       <c r="D385" t="n">
-        <v>4105466</v>
+        <v>4114466</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>7129</v>
+        <v>7138</v>
       </c>
       <c r="D388" t="n">
-        <v>9561489</v>
+        <v>9572634</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>5928</v>
+        <v>5934</v>
       </c>
       <c r="D389" t="n">
-        <v>8640721</v>
+        <v>8649721</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>16300</v>
+        <v>16315</v>
       </c>
       <c r="D390" t="n">
-        <v>23964429</v>
+        <v>23982807</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>6403</v>
+        <v>6408</v>
       </c>
       <c r="D391" t="n">
-        <v>9528745</v>
+        <v>9536245</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D393" t="n">
-        <v>707282</v>
+        <v>708782</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>6238</v>
+        <v>6251</v>
       </c>
       <c r="D396" t="n">
-        <v>8397202</v>
+        <v>8411043</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>4447</v>
+        <v>4451</v>
       </c>
       <c r="D397" t="n">
-        <v>6476594</v>
+        <v>6482594</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>13340</v>
+        <v>13344</v>
       </c>
       <c r="D398" t="n">
-        <v>19653604</v>
+        <v>19659604</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5297</v>
+        <v>5302</v>
       </c>
       <c r="D399" t="n">
-        <v>7876310</v>
+        <v>7883810</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D401" t="n">
-        <v>537053</v>
+        <v>538553</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4691</v>
+        <v>4696</v>
       </c>
       <c r="D404" t="n">
-        <v>6263066</v>
+        <v>6268306</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4750</v>
+        <v>4752</v>
       </c>
       <c r="D405" t="n">
-        <v>6922726</v>
+        <v>6925891</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>12432</v>
+        <v>12437</v>
       </c>
       <c r="D406" t="n">
-        <v>18305241</v>
+        <v>18312573</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4706</v>
+        <v>4711</v>
       </c>
       <c r="D407" t="n">
-        <v>7000466</v>
+        <v>7007966</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19918,10 +19918,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="D408" t="n">
-        <v>2278086</v>
+        <v>2282586</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4678</v>
+        <v>4681</v>
       </c>
       <c r="D411" t="n">
-        <v>6379321</v>
+        <v>6383821</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>5133</v>
+        <v>5134</v>
       </c>
       <c r="D412" t="n">
-        <v>7435873</v>
+        <v>7437373</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>12616</v>
+        <v>12619</v>
       </c>
       <c r="D413" t="n">
-        <v>18525814</v>
+        <v>18530221</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="D414" t="n">
-        <v>6163126</v>
+        <v>6164626</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D415" t="n">
-        <v>2173611</v>
+        <v>2175111</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D416" t="n">
-        <v>520012</v>
+        <v>521512</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D417" t="n">
-        <v>47902</v>
+        <v>49402</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5874</v>
+        <v>5879</v>
       </c>
       <c r="D419" t="n">
-        <v>7877874</v>
+        <v>7885374</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="D420" t="n">
-        <v>2661993</v>
+        <v>2664993</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5865</v>
+        <v>5876</v>
       </c>
       <c r="D421" t="n">
-        <v>8642757</v>
+        <v>8658589</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3984</v>
+        <v>3989</v>
       </c>
       <c r="D427" t="n">
-        <v>5280363</v>
+        <v>5286563</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="D433" t="n">
-        <v>4919082</v>
+        <v>4920582</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>7826</v>
+        <v>7828</v>
       </c>
       <c r="D434" t="n">
-        <v>11464610</v>
+        <v>11467610</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="D435" t="n">
-        <v>3916892</v>
+        <v>3918392</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D438" t="n">
-        <v>28500</v>
+        <v>30000</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="D439" t="n">
-        <v>3429701</v>
+        <v>3432701</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D440" t="n">
-        <v>2830282</v>
+        <v>2833582</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>5239</v>
+        <v>5240</v>
       </c>
       <c r="D441" t="n">
-        <v>7688113</v>
+        <v>7689613</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="D442" t="n">
-        <v>2552660</v>
+        <v>2555660</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D447" t="n">
-        <v>2367486</v>
+        <v>2368986</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="D448" t="n">
-        <v>3129551</v>
+        <v>3134095</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="D449" t="n">
-        <v>7560488</v>
+        <v>7563181</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>10077</v>
+        <v>10085</v>
       </c>
       <c r="D462" t="n">
-        <v>14817372</v>
+        <v>14829372</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3641</v>
+        <v>3645</v>
       </c>
       <c r="D463" t="n">
-        <v>5410665</v>
+        <v>5416665</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D464" t="n">
-        <v>1512042</v>
+        <v>1518042</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="D467" t="n">
-        <v>4184164</v>
+        <v>4185387</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>4736</v>
+        <v>4738</v>
       </c>
       <c r="D475" t="n">
-        <v>6849775</v>
+        <v>6852775</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>8627</v>
+        <v>8630</v>
       </c>
       <c r="D476" t="n">
-        <v>12637536</v>
+        <v>12641018</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="D477" t="n">
-        <v>3724648</v>
+        <v>3726148</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D482" t="n">
-        <v>1653210</v>
+        <v>1657710</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D487" t="n">
-        <v>1977831</v>
+        <v>1980067</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D489" t="n">
-        <v>1662792</v>
+        <v>1665792</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="D495" t="n">
-        <v>4499780</v>
+        <v>4501280</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="D499" t="n">
-        <v>1517991</v>
+        <v>1522065</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="D500" t="n">
-        <v>4406057</v>
+        <v>4410557</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>5653</v>
+        <v>5655</v>
       </c>
       <c r="D501" t="n">
-        <v>8271965</v>
+        <v>8274965</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D502" t="n">
-        <v>2373409</v>
+        <v>2374909</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="D506" t="n">
-        <v>3327652</v>
+        <v>3331452</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>9824</v>
+        <v>9838</v>
       </c>
       <c r="D507" t="n">
-        <v>14224983</v>
+        <v>14243632</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>20204</v>
+        <v>20215</v>
       </c>
       <c r="D508" t="n">
-        <v>29550119</v>
+        <v>29564255</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>6831</v>
+        <v>6835</v>
       </c>
       <c r="D509" t="n">
-        <v>10148783</v>
+        <v>10153335</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D510" t="n">
-        <v>3227857</v>
+        <v>3229357</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D511" t="n">
-        <v>729818</v>
+        <v>731318</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>7262</v>
+        <v>7269</v>
       </c>
       <c r="D515" t="n">
-        <v>9785670</v>
+        <v>9793176</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D516" t="n">
-        <v>2031810</v>
+        <v>2034810</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="D517" t="n">
-        <v>5027928</v>
+        <v>5031848</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>5358</v>
+        <v>5362</v>
       </c>
       <c r="D524" t="n">
-        <v>7840358</v>
+        <v>7846113</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D526" t="n">
-        <v>648379</v>
+        <v>649879</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D528" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D529" t="n">
-        <v>2339509</v>
+        <v>2340214</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D533" t="n">
-        <v>428675</v>
+        <v>430175</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="D536" t="n">
-        <v>2141839</v>
+        <v>2143339</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>4170</v>
+        <v>4176</v>
       </c>
       <c r="D537" t="n">
-        <v>5995985</v>
+        <v>6004985</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>9893</v>
+        <v>9897</v>
       </c>
       <c r="D538" t="n">
-        <v>14458064</v>
+        <v>14464064</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="D539" t="n">
-        <v>4870537</v>
+        <v>4872037</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3863</v>
+        <v>3867</v>
       </c>
       <c r="D544" t="n">
-        <v>5197945</v>
+        <v>5203945</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="D545" t="n">
-        <v>1848776</v>
+        <v>1853276</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D548" t="n">
-        <v>554420</v>
+        <v>558920</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D549" t="n">
-        <v>85073</v>
+        <v>86573</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D554" t="n">
-        <v>1010906</v>
+        <v>1013906</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="D559" t="n">
-        <v>4550568</v>
+        <v>4553568</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>5538</v>
+        <v>5539</v>
       </c>
       <c r="D560" t="n">
-        <v>8101971</v>
+        <v>8102783</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D561" t="n">
-        <v>2434325</v>
+        <v>2435825</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D565" t="n">
-        <v>2641881</v>
+        <v>2644881</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="D566" t="n">
-        <v>2810852</v>
+        <v>2822794</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3918</v>
+        <v>3921</v>
       </c>
       <c r="D567" t="n">
-        <v>5727577</v>
+        <v>5732077</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D570" t="n">
-        <v>123000</v>
+        <v>124500</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>4883</v>
+        <v>4885</v>
       </c>
       <c r="D573" t="n">
-        <v>7044939</v>
+        <v>7047939</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>11164</v>
+        <v>11170</v>
       </c>
       <c r="D574" t="n">
-        <v>16300481</v>
+        <v>16308219</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="D575" t="n">
-        <v>4503570</v>
+        <v>4508070</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>4365</v>
+        <v>4367</v>
       </c>
       <c r="D579" t="n">
-        <v>5773737</v>
+        <v>5776057</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="D585" t="n">
-        <v>1796111</v>
+        <v>1800611</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>7017</v>
+        <v>7019</v>
       </c>
       <c r="D586" t="n">
-        <v>10117715</v>
+        <v>10120715</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>16605</v>
+        <v>16616</v>
       </c>
       <c r="D587" t="n">
-        <v>24317394</v>
+        <v>24332374</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>5818</v>
+        <v>5821</v>
       </c>
       <c r="D588" t="n">
-        <v>8642641</v>
+        <v>8646515</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>6646</v>
+        <v>6651</v>
       </c>
       <c r="D593" t="n">
-        <v>8841300</v>
+        <v>8846877</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D594" t="n">
-        <v>2637730</v>
+        <v>2639230</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D596" t="n">
-        <v>1732753</v>
+        <v>1735753</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D597" t="n">
-        <v>461922</v>
+        <v>463422</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D598" t="n">
-        <v>137318</v>
+        <v>140318</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>9609</v>
+        <v>9619</v>
       </c>
       <c r="D601" t="n">
-        <v>13926156</v>
+        <v>13940264</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>20008</v>
+        <v>20027</v>
       </c>
       <c r="D602" t="n">
-        <v>29286158</v>
+        <v>29314393</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>5893</v>
+        <v>5899</v>
       </c>
       <c r="D603" t="n">
-        <v>8763071</v>
+        <v>8770385</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D604" t="n">
-        <v>2272609</v>
+        <v>2274109</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>6524</v>
+        <v>6528</v>
       </c>
       <c r="D607" t="n">
-        <v>8658001</v>
+        <v>8663424</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D608" t="n">
-        <v>2022605</v>
+        <v>2024105</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="D614" t="n">
-        <v>1703000</v>
+        <v>1706176</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D615" t="n">
-        <v>1071879</v>
+        <v>1073829</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>4443</v>
+        <v>4448</v>
       </c>
       <c r="D621" t="n">
-        <v>6447509</v>
+        <v>6455009</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>7169</v>
+        <v>7173</v>
       </c>
       <c r="D622" t="n">
-        <v>10420956</v>
+        <v>10426956</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="D623" t="n">
-        <v>3300961</v>
+        <v>3303961</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="D627" t="n">
-        <v>3677794</v>
+        <v>3678518</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30478,10 +30478,10 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="D628" t="n">
-        <v>2703917</v>
+        <v>2708417</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="D629" t="n">
-        <v>6558674</v>
+        <v>6560174</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D630" t="n">
-        <v>1970380</v>
+        <v>1971880</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>5870</v>
+        <v>5873</v>
       </c>
       <c r="D642" t="n">
-        <v>8509031</v>
+        <v>8512582</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>13306</v>
+        <v>13310</v>
       </c>
       <c r="D643" t="n">
-        <v>19551079</v>
+        <v>19556366</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>4951</v>
+        <v>4952</v>
       </c>
       <c r="D644" t="n">
-        <v>7344343</v>
+        <v>7345843</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D645" t="n">
-        <v>2019293</v>
+        <v>2020793</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>4583</v>
+        <v>4585</v>
       </c>
       <c r="D649" t="n">
-        <v>6109128</v>
+        <v>6111598</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="D650" t="n">
-        <v>3578342</v>
+        <v>3582842</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>7391</v>
+        <v>7392</v>
       </c>
       <c r="D651" t="n">
-        <v>10860378</v>
+        <v>10861878</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="D652" t="n">
-        <v>3598896</v>
+        <v>3600396</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2675</v>
+        <v>2678</v>
       </c>
       <c r="D659" t="n">
-        <v>3918743</v>
+        <v>3923043</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>4482</v>
+        <v>4487</v>
       </c>
       <c r="D666" t="n">
-        <v>6579459</v>
+        <v>6586959</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="D667" t="n">
-        <v>2195747</v>
+        <v>2200247</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D671" t="n">
-        <v>1898057</v>
+        <v>1898990</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>6764</v>
+        <v>6767</v>
       </c>
       <c r="D673" t="n">
-        <v>9896085</v>
+        <v>9899604</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D676" t="n">
-        <v>117954</v>
+        <v>119454</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32926,10 +32926,10 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="D679" t="n">
-        <v>2931649</v>
+        <v>2934649</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="D680" t="n">
-        <v>2447263</v>
+        <v>2451763</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33310,10 +33310,10 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>10042</v>
+        <v>10046</v>
       </c>
       <c r="D687" t="n">
-        <v>14537069</v>
+        <v>14541949</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>23184</v>
+        <v>23211</v>
       </c>
       <c r="D688" t="n">
-        <v>33996899</v>
+        <v>34036541</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>6877</v>
+        <v>6886</v>
       </c>
       <c r="D689" t="n">
-        <v>10222485</v>
+        <v>10235985</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="D690" t="n">
-        <v>2986296</v>
+        <v>2990796</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D692" t="n">
-        <v>51000</v>
+        <v>52500</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>8346</v>
+        <v>8356</v>
       </c>
       <c r="D694" t="n">
-        <v>11314890</v>
+        <v>11328614</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>11943</v>
+        <v>11951</v>
       </c>
       <c r="D695" t="n">
-        <v>17318153</v>
+        <v>17329106</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>31887</v>
+        <v>31932</v>
       </c>
       <c r="D696" t="n">
-        <v>46752663</v>
+        <v>46816986</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>10087</v>
+        <v>10115</v>
       </c>
       <c r="D697" t="n">
-        <v>15017932</v>
+        <v>15063201</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>2735</v>
+        <v>2741</v>
       </c>
       <c r="D698" t="n">
-        <v>4076737</v>
+        <v>4085896</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="D699" t="n">
-        <v>1074359</v>
+        <v>1093673</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D700" t="n">
-        <v>58500</v>
+        <v>60000</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>10350</v>
+        <v>10354</v>
       </c>
       <c r="D702" t="n">
-        <v>13877009</v>
+        <v>13879972</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="D704" t="n">
-        <v>4280742</v>
+        <v>4282242</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D707" t="n">
-        <v>149121</v>
+        <v>150621</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="D709" t="n">
-        <v>3068537</v>
+        <v>3072539</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>9822</v>
+        <v>9831</v>
       </c>
       <c r="D710" t="n">
-        <v>14064794</v>
+        <v>14077661</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>18111</v>
+        <v>18118</v>
       </c>
       <c r="D711" t="n">
-        <v>26412582</v>
+        <v>26421987</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D713" t="n">
-        <v>1822081</v>
+        <v>1823581</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34750,10 +34750,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>6013</v>
+        <v>6014</v>
       </c>
       <c r="D717" t="n">
-        <v>8089266</v>
+        <v>8090666</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>4285</v>
+        <v>4289</v>
       </c>
       <c r="D718" t="n">
-        <v>6185689</v>
+        <v>6192187</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>10599</v>
+        <v>10601</v>
       </c>
       <c r="D719" t="n">
-        <v>15516632</v>
+        <v>15519632</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="D720" t="n">
-        <v>4274172</v>
+        <v>4275672</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D721" t="n">
-        <v>994993</v>
+        <v>996991</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D722" t="n">
-        <v>264498</v>
+        <v>266496</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="D724" t="n">
-        <v>4537036</v>
+        <v>4540036</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
